--- a/apidoc.xlsx
+++ b/apidoc.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/master/Documents/jkwrite/bht/runtime/workspaces/madworkspace_s22/org.dieschnittstelle.mobile.samplewebapi/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFE0043-5967-4D40-BDA7-32E38B3EA9AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Opertation</t>
   </si>
@@ -100,12 +106,18 @@
   </si>
   <si>
     <t>org.dieschnittstelle.mobile.samplewebapi.User</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>/api/users/prepare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -169,14 +181,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -501,14 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
@@ -517,7 +537,7 @@
     <col min="5" max="5" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -551,7 +571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -565,7 +585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -579,7 +599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -596,7 +616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -610,7 +630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -624,7 +644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -641,7 +661,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -651,7 +688,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>

--- a/apidoc.xlsx
+++ b/apidoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/master/Documents/jkwrite/bht/runtime/workspaces/madworkspace_s22/org.dieschnittstelle.mobile.samplewebapi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFE0043-5967-4D40-BDA7-32E38B3EA9AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6927164D-31F7-1544-BB68-82EC81BAE46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4460" yWindow="500" windowWidth="25600" windowHeight="14800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Opertation</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>/api/users/prepare</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>/api/todos/reset</t>
+  </si>
+  <si>
+    <t>Liegen beim Start der Webanwendung keine Todos vor, werden Todos erstellt, die den Rahmenbedingungen für die Abnahme des Semesterprojekts der MAD Lehrveranstaltung  genügen. Die reset Operation stellt diesen Zustand im laufenden Betrieb wieder her.</t>
   </si>
 </sst>
 </file>
@@ -175,10 +184,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,16 +658,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -663,13 +672,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -678,30 +687,57 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
+  <mergeCells count="3">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/apidoc.xlsx
+++ b/apidoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/master/Documents/jkwrite/bht/runtime/workspaces/madworkspace_s22/org.dieschnittstelle.mobile.samplewebapi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6927164D-31F7-1544-BB68-82EC81BAE46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7787159A-FB59-9343-B48B-AF0606C9060C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="500" windowWidth="25600" windowHeight="14800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="14800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
